--- a/build2.7_260202/results/2.7b_data2005_import4_pattern_results.xlsx
+++ b/build2.7_260202/results/2.7b_data2005_import4_pattern_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{C1174992-B5D7-421C-BEBB-BC08A7CAE5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1337D01E-0204-4D3A-A576-ECB86A8B9A36}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{A9F78D5D-8D36-4CD2-B335-401B88FA73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08BEC09E-1B86-4A4F-BEFB-6BBE5548D8A6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{E0999C2E-C2EB-487A-AB21-17565593E4E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{75E37B2F-3E8D-4EDD-BDA8-44FAC3977DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="pradar" sheetId="5" r:id="rId5"/>
     <sheet name="plandrep" sheetId="6" r:id="rId6"/>
     <sheet name="plaborrep" sheetId="7" r:id="rId7"/>
-    <sheet name="pfertrep" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="86">
   <si>
     <t>potato</t>
   </si>
@@ -204,6 +203,12 @@
     <t>change</t>
   </si>
   <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>egg_dairy</t>
+  </si>
+  <si>
     <t>Hokkaido</t>
   </si>
   <si>
@@ -225,6 +230,57 @@
     <t>rapeseed</t>
   </si>
   <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>paddy_wet</t>
+  </si>
+  <si>
+    <t>paddy_dry</t>
+  </si>
+  <si>
+    <t>field_rain</t>
+  </si>
+  <si>
+    <t>field_irr</t>
+  </si>
+  <si>
+    <t>orchard</t>
+  </si>
+  <si>
     <t>dairycow</t>
   </si>
   <si>
@@ -244,72 +300,6 @@
   </si>
   <si>
     <t>layinghens</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>egg_dairy</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>paddy_wet</t>
-  </si>
-  <si>
-    <t>paddy_dry</t>
-  </si>
-  <si>
-    <t>field_rain</t>
-  </si>
-  <si>
-    <t>field_irr</t>
-  </si>
-  <si>
-    <t>orchard</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phosphate</t>
-  </si>
-  <si>
-    <t>kalium</t>
   </si>
 </sst>
 </file>
@@ -695,7 +685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13BA07A5-A86B-4C48-8916-E38566A94F42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FEEBD0-1FD0-49A5-8055-262E8486E358}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1887,7 +1877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD86794-7FA7-40B0-80C4-16828D7A5226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF82F4C9-E083-436B-A03B-CB8A6736D960}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2353,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5E4E64-EB78-4143-8D75-FB954F322FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB89BCFC-308D-4618-8D01-BCAA3C09D570}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2762,10 +2752,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9459907A-4E11-432F-9736-28AEF719C7C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF82B5D6-84E4-43D9-8653-D110BA83B576}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3069,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FC2F0D-32AB-4788-8544-1A312C870696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CE9CE9-FD4E-4CEE-A728-B30A48827D90}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3565,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>76.800000000000011</v>
@@ -3585,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>297</v>
@@ -3605,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>76.800000000000011</v>
@@ -3625,7 +3615,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>297</v>
@@ -3645,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>76.800000000000011</v>
@@ -3665,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>297</v>
@@ -3687,8 +3677,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CD009-E01A-4881-A9E2-B6C6BCD9DC6A}">
-  <dimension ref="A1:AA56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7151B63B-58D7-427C-8461-70826CCB29A4}">
+  <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3750,13 +3740,13 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
@@ -3767,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>124.81799999999998</v>
@@ -3793,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>527.78700000000003</v>
@@ -3816,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>854.125</v>
@@ -3848,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>0.52600000000000002</v>
@@ -3921,7 +3911,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>227.7</v>
@@ -3944,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>921.10000000000014</v>
@@ -3967,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1406.0230000000001</v>
@@ -3999,7 +3989,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>0.877</v>
@@ -4063,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>124.81799999999998</v>
@@ -4089,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>527.78700000000003</v>
@@ -4115,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>854.125</v>
@@ -4150,7 +4140,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>0.52600000000000002</v>
@@ -4218,7 +4208,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -4289,82 +4279,81 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
@@ -4399,10 +4388,10 @@
         <v>11</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>18</v>
@@ -4420,7 +4409,7 @@
         <v>11</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>18</v>
@@ -4437,14 +4426,13 @@
       <c r="Z20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>552.24900000000002</v>
@@ -4471,12 +4459,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F22">
         <v>552.24900000000002</v>
@@ -4503,12 +4491,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F23">
         <v>552.24900000000002</v>
@@ -4535,12 +4523,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F24">
         <v>552.24900000000002</v>
@@ -4579,12 +4567,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>552.24900000000002</v>
@@ -4626,12 +4614,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>1507.2560000000001</v>
@@ -4685,12 +4673,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>1507.2560000000001</v>
@@ -4744,12 +4732,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>1507.2560000000001</v>
@@ -4803,12 +4791,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>1507.2560000000001</v>
@@ -4862,12 +4850,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C30">
         <v>1382.4380000000001</v>
@@ -4921,12 +4909,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <v>552.24900000000002</v>
@@ -4953,12 +4941,12 @@
         <v>265.4480286738351</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F32">
         <v>552.24900000000002</v>
@@ -4990,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>552.24900000000002</v>
@@ -5034,7 +5022,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F34">
         <v>552.24900000000002</v>
@@ -5078,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F35">
         <v>552.24900000000002</v>
@@ -5122,7 +5110,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F36">
         <v>552.24900000000002</v>
@@ -5166,7 +5154,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>552.24900000000002</v>
@@ -5213,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C38">
         <v>1507.2560000000001</v>
@@ -5272,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>1507.2560000000001</v>
@@ -5331,7 +5319,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C40">
         <v>1507.2560000000001</v>
@@ -5384,7 +5372,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C41">
         <v>1507.2560000000001</v>
@@ -5443,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>1382.4380000000001</v>
@@ -5502,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F43">
         <v>552.24900000000002</v>
@@ -5546,7 +5534,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F44">
         <v>552.24900000000002</v>
@@ -5590,7 +5578,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F45">
         <v>552.24900000000002</v>
@@ -5628,7 +5616,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F46">
         <v>552.24900000000002</v>
@@ -5666,7 +5654,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F47">
         <v>552.24900000000002</v>
@@ -5704,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F48">
         <v>552.24900000000002</v>
@@ -5751,7 +5739,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>552.24900000000002</v>
@@ -5801,7 +5789,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C50">
         <v>1507.2560000000001</v>
@@ -5857,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C51">
         <v>1507.2560000000001</v>
@@ -5913,7 +5901,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <v>1507.2560000000001</v>
@@ -5969,7 +5957,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>1507.2560000000001</v>
@@ -6025,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>1382.4380000000001</v>
@@ -6081,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F55">
         <v>552.24900000000002</v>
@@ -6119,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F56">
         <v>552.24900000000002</v>
@@ -6159,10 +6147,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D07DF5E-995D-4AEC-8C0E-6D941C0C1124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42219C65-963A-4010-BF40-A2CB4A28A570}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6222,34 +6210,34 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>18</v>
@@ -6290,10 +6278,10 @@
         <v>0.27843612903225745</v>
       </c>
       <c r="T2">
-        <v>3.4195007999999923E-2</v>
+        <v>1.3280063999999972E-2</v>
       </c>
       <c r="U2">
-        <v>0.12282179999999976</v>
+        <v>8.697799999999983E-3</v>
       </c>
       <c r="W2">
         <v>5.7572166178232237E-4</v>
@@ -6302,7 +6290,7 @@
         <v>8.071902074238203E-3</v>
       </c>
       <c r="AD2">
-        <v>1.7890077545998162</v>
+        <v>1.6539688105998165</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6334,10 +6322,10 @@
         <v>0.27843612903225745</v>
       </c>
       <c r="T3">
-        <v>5.1434399999999894E-2</v>
+        <v>1.9975199999999957E-2</v>
       </c>
       <c r="U3">
-        <v>0.12282179999999976</v>
+        <v>8.697799999999983E-3</v>
       </c>
       <c r="W3">
         <v>7.4967899999999789E-4</v>
@@ -6346,7 +6334,7 @@
         <v>8.071902074238203E-3</v>
       </c>
       <c r="AD3">
-        <v>1.8030941379380341</v>
+        <v>1.6575109379380342</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6387,7 +6375,7 @@
         <v>0.27843612903225745</v>
       </c>
       <c r="U4">
-        <v>0.12282179999999976</v>
+        <v>8.697799999999983E-3</v>
       </c>
       <c r="W4">
         <v>7.1672646636127349E-4</v>
@@ -6396,7 +6384,7 @@
         <v>8.071902074238203E-3</v>
       </c>
       <c r="AD4">
-        <v>1.7558306634043954</v>
+        <v>1.6417066634043957</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6458,10 +6446,10 @@
         <v>0.27843612903225756</v>
       </c>
       <c r="T5">
-        <v>5.1434399999999894E-2</v>
+        <v>1.9975199999999957E-2</v>
       </c>
       <c r="U5">
-        <v>0.12282179999999976</v>
+        <v>8.697799999999983E-3</v>
       </c>
       <c r="V5">
         <v>1.498139999999997E-3</v>
@@ -6488,716 +6476,7 @@
         <v>3.6532199999999896E-3</v>
       </c>
       <c r="AD5">
-        <v>2.2810668896513202</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4F769C-C0E1-47D1-B6F6-8FFA47ACEAD0}">
-  <dimension ref="A1:X13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2">
-        <v>114551.45599999999</v>
-      </c>
-      <c r="E2">
-        <v>56881.647000000004</v>
-      </c>
-      <c r="J2">
-        <v>41678.223999999995</v>
-      </c>
-      <c r="K2">
-        <v>46332.538000000008</v>
-      </c>
-      <c r="L2">
-        <v>32468.799999999992</v>
-      </c>
-      <c r="M2">
-        <v>9362.2620000000006</v>
-      </c>
-      <c r="Q2">
-        <v>342069.47500000003</v>
-      </c>
-      <c r="R2">
-        <v>17690.035842293906</v>
-      </c>
-      <c r="S2">
-        <v>8395.4838709677424</v>
-      </c>
-      <c r="T2">
-        <v>10800.860215053763</v>
-      </c>
-      <c r="U2">
-        <v>3393.2799999999993</v>
-      </c>
-      <c r="V2">
-        <v>8864</v>
-      </c>
-      <c r="X2">
-        <v>692488.06192831544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>135653.03999999998</v>
-      </c>
-      <c r="E3">
-        <v>67926.627000000008</v>
-      </c>
-      <c r="J3">
-        <v>81655.295999999988</v>
-      </c>
-      <c r="K3">
-        <v>90773.952000000019</v>
-      </c>
-      <c r="L3">
-        <v>68505.599999999977</v>
-      </c>
-      <c r="M3">
-        <v>19753.344000000001</v>
-      </c>
-      <c r="Q3">
-        <v>205241.68500000003</v>
-      </c>
-      <c r="R3">
-        <v>10873.691756272399</v>
-      </c>
-      <c r="S3">
-        <v>2876.7741935483873</v>
-      </c>
-      <c r="T3">
-        <v>9168.1720430107525</v>
-      </c>
-      <c r="U3">
-        <v>1388.1599999999999</v>
-      </c>
-      <c r="V3">
-        <v>13850</v>
-      </c>
-      <c r="X3">
-        <v>707666.34199283156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>144696.576</v>
-      </c>
-      <c r="E4">
-        <v>51911.406000000003</v>
-      </c>
-      <c r="J4">
-        <v>125034.67199999999</v>
-      </c>
-      <c r="K4">
-        <v>138997.61400000003</v>
-      </c>
-      <c r="L4">
-        <v>44243.19999999999</v>
-      </c>
-      <c r="M4">
-        <v>12757.368</v>
-      </c>
-      <c r="Q4">
-        <v>327142.80700000003</v>
-      </c>
-      <c r="R4">
-        <v>12658.924731182795</v>
-      </c>
-      <c r="S4">
-        <v>4168.3870967741932</v>
-      </c>
-      <c r="T4">
-        <v>10424.086021505374</v>
-      </c>
-      <c r="U4">
-        <v>925.43999999999983</v>
-      </c>
-      <c r="V4">
-        <v>8864</v>
-      </c>
-      <c r="X4">
-        <v>881824.48084946244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5">
-        <v>194233.19999999995</v>
-      </c>
-      <c r="D5">
-        <v>123558.80000000002</v>
-      </c>
-      <c r="E5">
-        <v>56881.647000000004</v>
-      </c>
-      <c r="N5">
-        <v>28204.700000000004</v>
-      </c>
-      <c r="Q5">
-        <v>108161.075</v>
-      </c>
-      <c r="R5">
-        <v>17690.035842293906</v>
-      </c>
-      <c r="S5">
-        <v>8395.4838709677424</v>
-      </c>
-      <c r="T5">
-        <v>10800.860215053763</v>
-      </c>
-      <c r="U5">
-        <v>5104</v>
-      </c>
-      <c r="V5">
-        <v>8864</v>
-      </c>
-      <c r="X5">
-        <v>561893.80192831543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>230012.99999999994</v>
-      </c>
-      <c r="D6">
-        <v>147550.80000000002</v>
-      </c>
-      <c r="E6">
-        <v>67926.627000000008</v>
-      </c>
-      <c r="N6">
-        <v>76318.60000000002</v>
-      </c>
-      <c r="Q6">
-        <v>64896.644999999997</v>
-      </c>
-      <c r="R6">
-        <v>10873.691756272399</v>
-      </c>
-      <c r="S6">
-        <v>2876.7741935483873</v>
-      </c>
-      <c r="T6">
-        <v>9168.1720430107525</v>
-      </c>
-      <c r="U6">
-        <v>2088</v>
-      </c>
-      <c r="V6">
-        <v>13850</v>
-      </c>
-      <c r="X6">
-        <v>625562.30999283143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7">
-        <v>245347.19999999995</v>
-      </c>
-      <c r="D7">
-        <v>112762.40000000001</v>
-      </c>
-      <c r="E7">
-        <v>51911.406000000003</v>
-      </c>
-      <c r="N7">
-        <v>72170.85000000002</v>
-      </c>
-      <c r="Q7">
-        <v>103441.319</v>
-      </c>
-      <c r="R7">
-        <v>12658.924731182795</v>
-      </c>
-      <c r="S7">
-        <v>4168.3870967741932</v>
-      </c>
-      <c r="T7">
-        <v>10424.086021505374</v>
-      </c>
-      <c r="U7">
-        <v>1392</v>
-      </c>
-      <c r="V7">
-        <v>8864</v>
-      </c>
-      <c r="X7">
-        <v>623140.57284946239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8">
-        <v>114551.45600000006</v>
-      </c>
-      <c r="D8">
-        <v>89197.999999999971</v>
-      </c>
-      <c r="E8">
-        <v>56881.647000000004</v>
-      </c>
-      <c r="J8">
-        <v>42434</v>
-      </c>
-      <c r="K8">
-        <v>46332.538000000008</v>
-      </c>
-      <c r="L8">
-        <v>32468.799999999999</v>
-      </c>
-      <c r="M8">
-        <v>9362.2619999999933</v>
-      </c>
-      <c r="Q8">
-        <v>108161.075</v>
-      </c>
-      <c r="R8">
-        <v>17690.035842293906</v>
-      </c>
-      <c r="S8">
-        <v>8395.4838709677424</v>
-      </c>
-      <c r="T8">
-        <v>10800.860215053763</v>
-      </c>
-      <c r="V8">
-        <v>8864</v>
-      </c>
-      <c r="X8">
-        <v>545140.15792831546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9">
-        <v>135653.04000000007</v>
-      </c>
-      <c r="D9">
-        <v>106517.99999999997</v>
-      </c>
-      <c r="E9">
-        <v>67926.627000000008</v>
-      </c>
-      <c r="J9">
-        <v>83136</v>
-      </c>
-      <c r="K9">
-        <v>90773.952000000019</v>
-      </c>
-      <c r="L9">
-        <v>68505.600000000006</v>
-      </c>
-      <c r="M9">
-        <v>19753.343999999983</v>
-      </c>
-      <c r="Q9">
-        <v>64896.644999999997</v>
-      </c>
-      <c r="R9">
-        <v>10873.691756272399</v>
-      </c>
-      <c r="S9">
-        <v>2876.7741935483873</v>
-      </c>
-      <c r="T9">
-        <v>9168.1720430107525</v>
-      </c>
-      <c r="V9">
-        <v>13850</v>
-      </c>
-      <c r="X9">
-        <v>673931.84599283163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10">
-        <v>144696.57600000006</v>
-      </c>
-      <c r="D10">
-        <v>81403.999999999985</v>
-      </c>
-      <c r="E10">
-        <v>51911.406000000003</v>
-      </c>
-      <c r="J10">
-        <v>127302</v>
-      </c>
-      <c r="K10">
-        <v>138997.61400000003</v>
-      </c>
-      <c r="L10">
-        <v>44243.200000000004</v>
-      </c>
-      <c r="M10">
-        <v>12757.367999999989</v>
-      </c>
-      <c r="Q10">
-        <v>103441.319</v>
-      </c>
-      <c r="R10">
-        <v>12658.924731182795</v>
-      </c>
-      <c r="S10">
-        <v>4168.3870967741932</v>
-      </c>
-      <c r="T10">
-        <v>10424.086021505374</v>
-      </c>
-      <c r="V10">
-        <v>8864</v>
-      </c>
-      <c r="X10">
-        <v>740868.88084946247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11">
-        <v>129656</v>
-      </c>
-      <c r="D11">
-        <v>21990.5</v>
-      </c>
-      <c r="E11">
-        <v>21990.5</v>
-      </c>
-      <c r="F11">
-        <v>412.46000000000004</v>
-      </c>
-      <c r="G11">
-        <v>412.46000000000004</v>
-      </c>
-      <c r="H11">
-        <v>482.29999999999995</v>
-      </c>
-      <c r="I11">
-        <v>219.07216494845363</v>
-      </c>
-      <c r="J11">
-        <v>1960</v>
-      </c>
-      <c r="K11">
-        <v>1960</v>
-      </c>
-      <c r="L11">
-        <v>7796.7621419676216</v>
-      </c>
-      <c r="M11">
-        <v>7796.7621419676216</v>
-      </c>
-      <c r="N11">
-        <v>4556</v>
-      </c>
-      <c r="O11">
-        <v>4556</v>
-      </c>
-      <c r="P11">
-        <v>2936.4161849710986</v>
-      </c>
-      <c r="Q11">
-        <v>95771.144278606967</v>
-      </c>
-      <c r="R11">
-        <v>17690.035842293906</v>
-      </c>
-      <c r="S11">
-        <v>8395.4838709677424</v>
-      </c>
-      <c r="T11">
-        <v>10800.860215053764</v>
-      </c>
-      <c r="U11">
-        <v>5104</v>
-      </c>
-      <c r="V11">
-        <v>8864</v>
-      </c>
-      <c r="W11">
-        <v>87</v>
-      </c>
-      <c r="X11">
-        <v>353437.75684077723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12">
-        <v>153540</v>
-      </c>
-      <c r="D12">
-        <v>26260.5</v>
-      </c>
-      <c r="E12">
-        <v>26260.5</v>
-      </c>
-      <c r="F12">
-        <v>497.97</v>
-      </c>
-      <c r="G12">
-        <v>497.97</v>
-      </c>
-      <c r="H12">
-        <v>368.55</v>
-      </c>
-      <c r="I12">
-        <v>727.31958762886609</v>
-      </c>
-      <c r="J12">
-        <v>3840</v>
-      </c>
-      <c r="K12">
-        <v>3840</v>
-      </c>
-      <c r="L12">
-        <v>16450.311332503115</v>
-      </c>
-      <c r="M12">
-        <v>16450.311332503115</v>
-      </c>
-      <c r="N12">
-        <v>12328</v>
-      </c>
-      <c r="O12">
-        <v>12328</v>
-      </c>
-      <c r="P12">
-        <v>14094.797687861272</v>
-      </c>
-      <c r="Q12">
-        <v>57462.686567164179</v>
-      </c>
-      <c r="R12">
-        <v>10873.691756272401</v>
-      </c>
-      <c r="S12">
-        <v>2876.7741935483873</v>
-      </c>
-      <c r="T12">
-        <v>9168.1720430107525</v>
-      </c>
-      <c r="U12">
-        <v>2088</v>
-      </c>
-      <c r="V12">
-        <v>13850</v>
-      </c>
-      <c r="W12">
-        <v>130.5</v>
-      </c>
-      <c r="X12">
-        <v>383934.05450049206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13">
-        <v>163776</v>
-      </c>
-      <c r="D13">
-        <v>20069</v>
-      </c>
-      <c r="E13">
-        <v>20069</v>
-      </c>
-      <c r="F13">
-        <v>497.97</v>
-      </c>
-      <c r="G13">
-        <v>497.97</v>
-      </c>
-      <c r="H13">
-        <v>536.9</v>
-      </c>
-      <c r="I13">
-        <v>613.40206185567013</v>
-      </c>
-      <c r="J13">
-        <v>5880</v>
-      </c>
-      <c r="K13">
-        <v>5880</v>
-      </c>
-      <c r="L13">
-        <v>10624.159402241594</v>
-      </c>
-      <c r="M13">
-        <v>10624.159402241594</v>
-      </c>
-      <c r="N13">
-        <v>11658</v>
-      </c>
-      <c r="O13">
-        <v>11658</v>
-      </c>
-      <c r="P13">
-        <v>6019.6531791907519</v>
-      </c>
-      <c r="Q13">
-        <v>91592.03980099503</v>
-      </c>
-      <c r="R13">
-        <v>12658.924731182797</v>
-      </c>
-      <c r="S13">
-        <v>4168.3870967741932</v>
-      </c>
-      <c r="T13">
-        <v>10424.086021505376</v>
-      </c>
-      <c r="U13">
-        <v>1392</v>
-      </c>
-      <c r="V13">
-        <v>8864</v>
-      </c>
-      <c r="W13">
-        <v>130.5</v>
-      </c>
-      <c r="X13">
-        <v>397634.15169598698</v>
+        <v>2.1354836896513203</v>
       </c>
     </row>
   </sheetData>

--- a/build2.7_260202/results/2.7b_data2005_import4_pattern_results.xlsx
+++ b/build2.7_260202/results/2.7b_data2005_import4_pattern_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{A9F78D5D-8D36-4CD2-B335-401B88FA73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08BEC09E-1B86-4A4F-BEFB-6BBE5548D8A6}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{A9F78D5D-8D36-4CD2-B335-401B88FA73E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CE36DFA-986D-47A9-A96B-522DD6B32467}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{75E37B2F-3E8D-4EDD-BDA8-44FAC3977DB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{75E37B2F-3E8D-4EDD-BDA8-44FAC3977DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -203,33 +203,54 @@
     <t>change</t>
   </si>
   <si>
+    <t>Hokkaido</t>
+  </si>
+  <si>
+    <t>Tohoku_Hokuriku</t>
+  </si>
+  <si>
+    <t>Kanto_West</t>
+  </si>
+  <si>
+    <t>Okinawa</t>
+  </si>
+  <si>
+    <t>scane</t>
+  </si>
+  <si>
+    <t>sbeat</t>
+  </si>
+  <si>
+    <t>rapeseed</t>
+  </si>
+  <si>
+    <t>dairycow</t>
+  </si>
+  <si>
+    <t>dairyox</t>
+  </si>
+  <si>
+    <t>heifer</t>
+  </si>
+  <si>
+    <t>calves</t>
+  </si>
+  <si>
+    <t>swine</t>
+  </si>
+  <si>
+    <t>broiler</t>
+  </si>
+  <si>
+    <t>layinghens</t>
+  </si>
+  <si>
     <t>meat</t>
   </si>
   <si>
     <t>egg_dairy</t>
   </si>
   <si>
-    <t>Hokkaido</t>
-  </si>
-  <si>
-    <t>Tohoku_Hokuriku</t>
-  </si>
-  <si>
-    <t>Kanto_West</t>
-  </si>
-  <si>
-    <t>Okinawa</t>
-  </si>
-  <si>
-    <t>scane</t>
-  </si>
-  <si>
-    <t>sbeat</t>
-  </si>
-  <si>
-    <t>rapeseed</t>
-  </si>
-  <si>
     <t>jan</t>
   </si>
   <si>
@@ -279,27 +300,6 @@
   </si>
   <si>
     <t>orchard</t>
-  </si>
-  <si>
-    <t>dairycow</t>
-  </si>
-  <si>
-    <t>dairyox</t>
-  </si>
-  <si>
-    <t>heifer</t>
-  </si>
-  <si>
-    <t>calves</t>
-  </si>
-  <si>
-    <t>swine</t>
-  </si>
-  <si>
-    <t>broiler</t>
-  </si>
-  <si>
-    <t>layinghens</t>
   </si>
 </sst>
 </file>
@@ -994,16 +994,16 @@
         <v>77.599999999999994</v>
       </c>
       <c r="D16">
-        <v>170.4884525255824</v>
+        <v>85.456876132750196</v>
       </c>
       <c r="E16">
         <v>263.8</v>
       </c>
       <c r="F16">
-        <v>579.89269566524626</v>
+        <v>290.66964671003467</v>
       </c>
       <c r="G16">
-        <v>316.09269566524625</v>
+        <v>26.869646710034658</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1086,16 +1086,16 @@
         <v>1682.5000000000002</v>
       </c>
       <c r="D20">
-        <v>2256.7860891254604</v>
+        <v>2171.754512732628</v>
       </c>
       <c r="E20">
         <v>879.30000000000007</v>
       </c>
       <c r="F20">
-        <v>1991.0260747352022</v>
+        <v>1701.8030257799905</v>
       </c>
       <c r="G20">
-        <v>1111.7260747352022</v>
+        <v>822.50302577999071</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1371,16 +1371,16 @@
         <v>77.599999999999994</v>
       </c>
       <c r="D35">
-        <v>53.907804256002244</v>
+        <v>1.8160559310066808</v>
       </c>
       <c r="E35">
         <v>263.8</v>
       </c>
       <c r="F35">
-        <v>183.35987842177636</v>
+        <v>6.1770609898186439</v>
       </c>
       <c r="G35">
-        <v>-80.440121578223653</v>
+        <v>-257.62293901018137</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1463,16 +1463,16 @@
         <v>1682.5000000000002</v>
       </c>
       <c r="D39">
-        <v>1498.9551233295513</v>
+        <v>1446.8633750045558</v>
       </c>
       <c r="E39">
         <v>879.30000000000007</v>
       </c>
       <c r="F39">
-        <v>622.21820615875095</v>
+        <v>445.0353887267932</v>
       </c>
       <c r="G39">
-        <v>-257.08179384124907</v>
+        <v>-434.26461127320687</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1766,16 +1766,16 @@
         <v>77.599999999999994</v>
       </c>
       <c r="D54">
-        <v>53.907804256002244</v>
+        <v>2.5807706990216824E-14</v>
       </c>
       <c r="E54">
         <v>263.8</v>
       </c>
       <c r="F54">
-        <v>183.35987842177636</v>
+        <v>8.7781316293254506E-14</v>
       </c>
       <c r="G54">
-        <v>-80.440121578223653</v>
+        <v>-263.7999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1858,16 +1858,16 @@
         <v>1682.5000000000002</v>
       </c>
       <c r="D58">
-        <v>2335.0200729741769</v>
+        <v>2281.1122687181746</v>
       </c>
       <c r="E58">
         <v>879.30000000000007</v>
       </c>
       <c r="F58">
-        <v>1652.6703144205301</v>
+        <v>1469.3104359987537</v>
       </c>
       <c r="G58">
-        <v>773.37031442053024</v>
+        <v>590.01043599875402</v>
       </c>
     </row>
   </sheetData>
@@ -2790,13 +2790,13 @@
         <v>3021.5</v>
       </c>
       <c r="E2">
-        <v>2549.0780568240734</v>
+        <v>2464.046480431241</v>
       </c>
       <c r="F2">
-        <v>472.17380720713072</v>
+        <v>387.14223081429827</v>
       </c>
       <c r="G2">
-        <v>122.73450050931413</v>
+        <v>118.64035045841432</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2813,13 +2813,13 @@
         <v>100.79999999999998</v>
       </c>
       <c r="E3">
-        <v>50.660864808688011</v>
+        <v>47.190188221225483</v>
       </c>
       <c r="F3">
-        <v>-16.825350722013262</v>
+        <v>-20.296027309475789</v>
       </c>
       <c r="G3">
-        <v>75.068463108056548</v>
+        <v>69.925669783272127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2836,13 +2836,13 @@
         <v>88.1</v>
       </c>
       <c r="E4">
-        <v>14.186313626735345</v>
+        <v>13.60786752882492</v>
       </c>
       <c r="F4">
-        <v>-48.108264203231798</v>
+        <v>-48.686710301142227</v>
       </c>
       <c r="G4">
-        <v>22.772950906669347</v>
+        <v>21.844385182234561</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2859,13 +2859,13 @@
         <v>345.92500000000007</v>
       </c>
       <c r="E5">
-        <v>519.20805861419444</v>
+        <v>504.09615430628457</v>
       </c>
       <c r="F5">
-        <v>207.73516946435871</v>
+        <v>192.62326515644884</v>
       </c>
       <c r="G5">
-        <v>166.69446256827399</v>
+        <v>161.84270665810223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2882,13 +2882,13 @@
         <v>3021.5</v>
       </c>
       <c r="E6">
-        <v>1783.9442730302478</v>
+        <v>1731.8525247052523</v>
       </c>
       <c r="F6">
-        <v>-292.95997658669489</v>
+        <v>-345.05172491169037</v>
       </c>
       <c r="G6">
-        <v>85.894391778497848</v>
+        <v>83.386247826526883</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2905,13 +2905,13 @@
         <v>100.79999999999998</v>
       </c>
       <c r="E7">
-        <v>58.179905510609082</v>
+        <v>56.053711701425591</v>
       </c>
       <c r="F7">
-        <v>-9.3063100200921909</v>
+        <v>-11.432503829275682</v>
       </c>
       <c r="G7">
-        <v>86.210057940115917</v>
+        <v>83.05949779614663</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2928,13 +2928,13 @@
         <v>88.1</v>
       </c>
       <c r="E8">
-        <v>22.41227230284942</v>
+        <v>22.057906667985502</v>
       </c>
       <c r="F8">
-        <v>-39.882305527117722</v>
+        <v>-40.236671161981647</v>
       </c>
       <c r="G8">
-        <v>35.977886171768667</v>
+        <v>35.409031470110435</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2951,13 +2951,13 @@
         <v>345.92500000000007</v>
       </c>
       <c r="E9">
-        <v>316.69408623053022</v>
+        <v>307.4362840197104</v>
       </c>
       <c r="F9">
-        <v>5.2211970806944805</v>
+        <v>-4.0366051301253378</v>
       </c>
       <c r="G9">
-        <v>101.67629262853205</v>
+        <v>98.704026812367772</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2974,13 +2974,13 @@
         <v>3021.5</v>
       </c>
       <c r="E10">
-        <v>2639.390428550802</v>
+        <v>2585.4826242947997</v>
       </c>
       <c r="F10">
-        <v>562.48617893385926</v>
+        <v>508.57837467785703</v>
       </c>
       <c r="G10">
-        <v>127.08291338118272</v>
+        <v>124.48732890655202</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2997,13 +2997,13 @@
         <v>100.79999999999998</v>
       </c>
       <c r="E11">
-        <v>52.573692951984469</v>
+        <v>50.373374410923155</v>
       </c>
       <c r="F11">
-        <v>-14.912522578716803</v>
+        <v>-17.112841119778118</v>
       </c>
       <c r="G11">
-        <v>77.902861404440884</v>
+        <v>74.642464412613222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3020,13 +3020,13 @@
         <v>88.1</v>
       </c>
       <c r="E12">
-        <v>15.64332998782641</v>
+        <v>15.276610230982858</v>
       </c>
       <c r="F12">
-        <v>-46.651247842140734</v>
+        <v>-47.017967598984285</v>
       </c>
       <c r="G12">
-        <v>25.111864519773825</v>
+        <v>24.523178040760332</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3043,13 +3043,13 @@
         <v>345.92500000000007</v>
       </c>
       <c r="E13">
-        <v>540.59964897102725</v>
+        <v>531.01909532348941</v>
       </c>
       <c r="F13">
-        <v>229.12675982119151</v>
+        <v>219.54620617365367</v>
       </c>
       <c r="G13">
-        <v>173.56234452590473</v>
+        <v>170.48645767305922</v>
       </c>
     </row>
   </sheetData>
@@ -3185,13 +3185,13 @@
         <v>263.8</v>
       </c>
       <c r="D7">
-        <v>579.89269566524626</v>
+        <v>290.66964671003467</v>
       </c>
       <c r="E7">
-        <v>219.8228565827317</v>
+        <v>110.18561285444832</v>
       </c>
       <c r="F7">
-        <v>316.09269566524625</v>
+        <v>26.869646710034658</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3333,13 +3333,13 @@
         <v>263.8</v>
       </c>
       <c r="D15">
-        <v>183.35987842177636</v>
+        <v>6.1770609898186439</v>
       </c>
       <c r="E15">
-        <v>69.507156338808329</v>
+        <v>2.3415697459509643</v>
       </c>
       <c r="F15">
-        <v>-80.440121578223653</v>
+        <v>-257.62293901018137</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3487,13 +3487,13 @@
         <v>263.8</v>
       </c>
       <c r="D23">
-        <v>183.35987842177636</v>
+        <v>8.7781316293254506E-14</v>
       </c>
       <c r="E23">
-        <v>69.507156338808329</v>
+        <v>3.3275707465221569E-14</v>
       </c>
       <c r="F23">
-        <v>-80.440121578223653</v>
+        <v>-263.7999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <v>76.800000000000011</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C29">
         <v>297</v>
@@ -3595,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>76.800000000000011</v>
@@ -3615,7 +3615,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>297</v>
@@ -3635,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>76.800000000000011</v>
@@ -3655,7 +3655,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>297</v>
@@ -3740,13 +3740,13 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>18</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>124.81799999999998</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>527.78700000000003</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>854.125</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0.52600000000000002</v>
@@ -3888,7 +3888,7 @@
         <v>102.88199999999999</v>
       </c>
       <c r="Q6">
-        <v>1243.8890000000001</v>
+        <v>623.49599999999998</v>
       </c>
       <c r="R6">
         <v>81.146953405017911</v>
@@ -3911,7 +3911,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>227.7</v>
@@ -3934,7 +3934,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>921.10000000000014</v>
@@ -3957,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1406.0230000000001</v>
@@ -3989,7 +3989,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>0.877</v>
@@ -4030,7 +4030,7 @@
         <v>829.55</v>
       </c>
       <c r="Q11">
-        <v>393.31299999999999</v>
+        <v>13.250000000000018</v>
       </c>
       <c r="R11">
         <v>81.146953405017911</v>
@@ -4053,7 +4053,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>124.81799999999998</v>
@@ -4079,7 +4079,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>527.78700000000003</v>
@@ -4105,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>854.125</v>
@@ -4140,7 +4140,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>0.52600000000000002</v>
@@ -4193,7 +4193,7 @@
         <v>102.88200000000001</v>
       </c>
       <c r="Q16">
-        <v>393.31299999999999</v>
+        <v>1.8829382497642655E-13</v>
       </c>
       <c r="R16">
         <v>81.146953405017911</v>
@@ -4281,76 +4281,76 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -4388,10 +4388,10 @@
         <v>11</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>18</v>
@@ -4409,7 +4409,7 @@
         <v>11</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>18</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F21">
         <v>552.24900000000002</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>552.24900000000002</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>552.24900000000002</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F24">
         <v>552.24900000000002</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>552.24900000000002</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C26">
         <v>1507.2560000000001</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>1507.2560000000001</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>1507.2560000000001</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>1507.2560000000001</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>1382.4380000000001</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F31">
         <v>552.24900000000002</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F32">
         <v>552.24900000000002</v>
@@ -4978,7 +4978,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>552.24900000000002</v>
@@ -5022,7 +5022,7 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F34">
         <v>552.24900000000002</v>
@@ -5066,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F35">
         <v>552.24900000000002</v>
@@ -5110,7 +5110,7 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F36">
         <v>552.24900000000002</v>
@@ -5154,7 +5154,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F37">
         <v>552.24900000000002</v>
@@ -5201,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>1507.2560000000001</v>
@@ -5260,7 +5260,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>1507.2560000000001</v>
@@ -5319,7 +5319,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>1507.2560000000001</v>
@@ -5372,7 +5372,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>1507.2560000000001</v>
@@ -5431,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>1382.4380000000001</v>
@@ -5490,7 +5490,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F43">
         <v>552.24900000000002</v>
@@ -5534,7 +5534,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F44">
         <v>552.24900000000002</v>
@@ -5578,7 +5578,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F45">
         <v>552.24900000000002</v>
@@ -5616,7 +5616,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F46">
         <v>552.24900000000002</v>
@@ -5654,7 +5654,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F47">
         <v>552.24900000000002</v>
@@ -5692,7 +5692,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F48">
         <v>552.24900000000002</v>
@@ -5739,7 +5739,7 @@
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F49">
         <v>552.24900000000002</v>
@@ -5789,7 +5789,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>1507.2560000000001</v>
@@ -5845,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>1507.2560000000001</v>
@@ -5901,7 +5901,7 @@
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C52">
         <v>1507.2560000000001</v>
@@ -5957,7 +5957,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>1507.2560000000001</v>
@@ -6013,7 +6013,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C54">
         <v>1382.4380000000001</v>
@@ -6069,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F55">
         <v>552.24900000000002</v>
@@ -6107,7 +6107,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F56">
         <v>552.24900000000002</v>
@@ -6150,7 +6150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42219C65-963A-4010-BF40-A2CB4A28A570}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6210,34 +6210,34 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>18</v>
@@ -6254,25 +6254,25 @@
         <v>3.0925943999999941E-2</v>
       </c>
       <c r="I2">
-        <v>4.7632255999999901E-2</v>
+        <v>0.76551839999999838</v>
       </c>
       <c r="J2">
-        <v>5.2951471999999902E-2</v>
+        <v>0.85100579999999837</v>
       </c>
       <c r="K2">
-        <v>0.32111999999999924</v>
+        <v>7.5998399999999827E-2</v>
       </c>
       <c r="L2">
-        <v>9.2593799999999823E-2</v>
+        <v>2.1913865999999959E-2</v>
       </c>
       <c r="P2">
-        <v>7.0901672999999873E-2</v>
+        <v>0.6132083159999987</v>
       </c>
       <c r="Q2">
-        <v>0.15961605734766993</v>
+        <v>0.17990279569892437</v>
       </c>
       <c r="R2">
-        <v>0.11548193548387074</v>
+        <v>0.13015935483870941</v>
       </c>
       <c r="S2">
         <v>0.27843612903225745</v>
@@ -6290,7 +6290,7 @@
         <v>8.071902074238203E-3</v>
       </c>
       <c r="AD2">
-        <v>1.6539688105998165</v>
+        <v>3.4313785493059061</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6307,16 +6307,16 @@
         <v>3.0925943999999941E-2</v>
       </c>
       <c r="M3">
-        <v>0.17669414999999972</v>
+        <v>9.4568699999999839E-2</v>
       </c>
       <c r="P3">
-        <v>2.2418840999999953E-2</v>
+        <v>1.3031374999999991E-2</v>
       </c>
       <c r="Q3">
-        <v>0.15961605734766993</v>
+        <v>0.17990279569892437</v>
       </c>
       <c r="R3">
-        <v>0.11548193548387074</v>
+        <v>0.13015935483870941</v>
       </c>
       <c r="S3">
         <v>0.27843612903225745</v>
@@ -6334,7 +6334,7 @@
         <v>8.071902074238203E-3</v>
       </c>
       <c r="AD3">
-        <v>1.6575109379380342</v>
+        <v>1.6009621796441273</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6351,25 +6351,25 @@
         <v>3.0925943999999941E-2</v>
       </c>
       <c r="I4">
-        <v>4.8495999999999907E-2</v>
+        <v>0.77939999999999854</v>
       </c>
       <c r="J4">
-        <v>5.2951471999999902E-2</v>
+        <v>0.85100579999999837</v>
       </c>
       <c r="K4">
-        <v>0.32111999999999941</v>
+        <v>7.5998399999999855E-2</v>
       </c>
       <c r="L4">
-        <v>9.2593799999999754E-2</v>
+        <v>2.1913865999999942E-2</v>
       </c>
       <c r="P4">
-        <v>2.2418840999999953E-2</v>
+        <v>1.8518697686431514E-16</v>
       </c>
       <c r="Q4">
-        <v>0.15961605734766993</v>
+        <v>0.17990279569892437</v>
       </c>
       <c r="R4">
-        <v>0.11548193548387074</v>
+        <v>0.13015935483870941</v>
       </c>
       <c r="S4">
         <v>0.27843612903225745</v>
@@ -6384,7 +6384,7 @@
         <v>8.071902074238203E-3</v>
       </c>
       <c r="AD4">
-        <v>1.6417066634043957</v>
+        <v>2.867408774110487</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6413,34 +6413,34 @@
         <v>4.9072164948453512E-4</v>
       </c>
       <c r="I5">
-        <v>2.2399999999999955E-3</v>
+        <v>3.5999999999999928E-2</v>
       </c>
       <c r="J5">
-        <v>2.2399999999999955E-3</v>
+        <v>3.5999999999999928E-2</v>
       </c>
       <c r="K5">
-        <v>7.7110834371108189E-2</v>
+        <v>1.8249564134495608E-2</v>
       </c>
       <c r="L5">
-        <v>7.7110834371108189E-2</v>
+        <v>1.8249564134495608E-2</v>
       </c>
       <c r="M5">
-        <v>2.8541999999999946E-2</v>
+        <v>1.527599999999997E-2</v>
       </c>
       <c r="N5">
-        <v>2.8541999999999946E-2</v>
+        <v>1.527599999999997E-2</v>
       </c>
       <c r="O5">
         <v>8.3687861271676146E-3</v>
       </c>
       <c r="P5">
-        <v>1.9850746268656679E-2</v>
+        <v>0.34251243781094459</v>
       </c>
       <c r="Q5">
-        <v>0.15961605734766993</v>
+        <v>0.17990279569892439</v>
       </c>
       <c r="R5">
-        <v>0.11548193548387074</v>
+        <v>0.13015935483870941</v>
       </c>
       <c r="S5">
         <v>0.27843612903225756</v>
@@ -6452,7 +6452,7 @@
         <v>8.697799999999983E-3</v>
       </c>
       <c r="V5">
-        <v>1.498139999999997E-3</v>
+        <v>9.7439999999999812E-5</v>
       </c>
       <c r="W5">
         <v>2.4989299999999924E-4</v>
@@ -6476,7 +6476,7 @@
         <v>3.6532199999999896E-3</v>
       </c>
       <c r="AD5">
-        <v>2.1354836896513203</v>
+        <v>2.4149742984264759</v>
       </c>
     </row>
   </sheetData>
